--- a/InputData/indst/PPRiFUfIIaIoE/Pot Perc Red in Fuel Use fr Impr Inst and Integ of Eqpt.xlsx
+++ b/InputData/indst/PPRiFUfIIaIoE/Pot Perc Red in Fuel Use fr Impr Inst and Integ of Eqpt.xlsx
@@ -1,121 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipC\InputData\indst\PPRiFUfIIaIoE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfIIaIoE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_88D1FCE2C4D9C73291A4502FCB8DCAF27C1D99DD" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8B568B4A-B661-4EAF-B1F9-21C6407A65C2}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="PPRiFUfIIaIoE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Institute</t>
+  </si>
+  <si>
+    <t>Reinventing Fire</t>
+  </si>
+  <si>
+    <t>http://www.rmi.org/RFGraph-US_industry_energy_saving_potential</t>
+  </si>
+  <si>
+    <t>Book page 127, Figure 4-2 (or see link above)</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>2050 business-as-usual</t>
+  </si>
+  <si>
+    <t>Integrative design</t>
+  </si>
+  <si>
+    <t>Energy Use (quadrillion BTU/yr)</t>
+  </si>
+  <si>
+    <t>Percentage Savings in 2050</t>
+  </si>
+  <si>
+    <t>Model End Year</t>
+  </si>
+  <si>
+    <t>Percentage Savings in End Year</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>We exclude Agriculture, because it has a lack of fixed equipment compared to other</t>
+  </si>
+  <si>
+    <t>industries, so this policy likely does not apply very well to Agriculture.</t>
+  </si>
+  <si>
+    <t>cement and other carbonates</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum systems</t>
+  </si>
+  <si>
+    <t>iron and steel</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>waste management</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>other industries</t>
+  </si>
+  <si>
     <t>PPRiFUfIIaIoE Potential Perc Reduction in Fuel Use from Improved Installation and Integration of Eqpt</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Rocky Mountain Institute</t>
-  </si>
-  <si>
-    <t>Reinventing Fire</t>
-  </si>
-  <si>
-    <t>http://www.rmi.org/RFGraph-US_industry_energy_saving_potential</t>
-  </si>
-  <si>
-    <t>Book page 127, Figure 4-2 (or see link above)</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>We exclude Agriculture, because it has a lack of fixed equipment compared to other</t>
-  </si>
-  <si>
-    <t>industries, so this policy likely does not apply very well to Agriculture.</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Energy Use (quadrillion BTU/yr)</t>
-  </si>
-  <si>
-    <t>2050 business-as-usual</t>
-  </si>
-  <si>
-    <t>Integrative design</t>
-  </si>
-  <si>
-    <t>Percentage Savings in 2050</t>
-  </si>
-  <si>
-    <t>Model End Year</t>
-  </si>
-  <si>
-    <t>Percentage Savings in End Year</t>
-  </si>
-  <si>
-    <t>Pot Perc Red in Fuel Use</t>
-  </si>
-  <si>
-    <t>cement and other carbonates</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum systems</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>mining</t>
-  </si>
-  <si>
-    <t>waste management</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>other industries</t>
+    <t>Pot Perc Red in Fuel Use (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,15 +193,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -306,23 +297,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -358,23 +332,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,68 +507,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.1328125" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -619,61 +576,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.3984375" customWidth="1"/>
+    <col min="2" max="2" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <f>-B3/B2</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9">
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7">
         <f>B5*(B6-2010)/(2050-2010)</f>
@@ -686,92 +643,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.265625" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45">
-      <c r="A2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="11">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="11">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45">
-      <c r="A4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45">
-      <c r="A5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45">
-      <c r="A6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45">
-      <c r="A7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="11">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45">
-      <c r="A8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="14">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45">
-      <c r="A9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="11">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
@@ -782,15 +741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1024,6 +974,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1034,13 +993,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB28325B-C560-4447-AC5A-571B361DAE56}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49C87FC4-3DBC-4314-B1B6-3F12DA16DAF0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DCC9A19-297C-4F65-B84E-7B0329AE1158}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F711A3-2CE2-4045-B1BC-CDA1E0652E71}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9261AD6-0A21-4AC6-B963-A3B7E3F87904}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C69E7DC1-0614-42B7-9208-F9D9A0B8DFAD}"/>
 </file>